--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenwilliams/Documents/environments/eSwazi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C5625-A707-114A-AE55-148C33317D9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B7CED3-2AD0-B540-9219-B38B4D0DA655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{9D2FC96E-559F-6649-B09D-570FB71521B4}"/>
   </bookViews>
@@ -34,18 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>https://twitter.com/harumarch99/status/1410964300848504834</t>
+    <t>Insert Input URLs below</t>
   </si>
   <si>
-    <t>https://twitter.com/deepinbob/status/1408069483055378436</t>
+    <t>https://twitter.com/vuyolwethurarei/status/1410398907734052870</t>
   </si>
   <si>
-    <t>https://twitter.com/iksongholic/status/1408977671103467520</t>
+    <t>https://twitter.com/SwaziNews/status/1411287950256750592</t>
   </si>
   <si>
-    <t>Insert Input URLs below</t>
+    <t>https://twitter.com/madetolove1991/status/1411733364730744840</t>
+  </si>
+  <si>
+    <t>https://twitter.com/spittinchiclets/status/1411846947711946752</t>
   </si>
 </sst>
 </file>
@@ -409,34 +412,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
